--- a/data/trans_dic/P48_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>0,0; 7,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,84</t>
+          <t>0,74; 4,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,78</t>
+          <t>0,9; 4,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,31</t>
+          <t>0,61; 7,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,35</t>
+          <t>2,18; 10,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,03</t>
+          <t>4,39; 14,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,7</t>
+          <t>2,0; 6,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,26</t>
+          <t>2,02; 5,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,0</t>
+          <t>3,28; 12,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,79</t>
+          <t>1,39; 6,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,17</t>
+          <t>3,27; 10,36</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 4,71</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 4,26</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 8,11</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>10,83%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,41</t>
+          <t>10,16; 18,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,46</t>
+          <t>12,84; 22,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,53</t>
+          <t>7,45; 13,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 12,21</t>
+          <t>7,24; 12,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,27</t>
+          <t>14,33; 23,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 21,35</t>
+          <t>15,35; 25,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,43</t>
+          <t>15,22; 24,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,23</t>
+          <t>8,84; 14,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,42</t>
+          <t>8,1; 13,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,83</t>
+          <t>15,4; 23,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 12,88</t>
+          <t>13,87; 20,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,91</t>
+          <t>15,22; 21,74</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 13,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 12,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 22,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>76,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>72,44%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>82,26%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>81,71%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>79,82%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,62; 86,73</t>
+          <t>77,38; 89,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,27; 80,53</t>
+          <t>67,88; 82,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,3; 92,01</t>
+          <t>85,94; 93,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,45; 92,12</t>
+          <t>85,51; 92,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,97; 78,56</t>
+          <t>75,54; 87,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,89; 74,5</t>
+          <t>70,67; 82,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,8; 79,01</t>
+          <t>62,6; 75,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,92; 78,6</t>
+          <t>70,7; 78,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,68; 81,53</t>
+          <t>70,76; 78,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,32; 76,24</t>
+          <t>73,01; 81,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>79,13; 84,29</t>
+          <t>75,61; 83,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,88; 83,98</t>
+          <t>67,95; 76,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>79,32; 84,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>79,0; 84,04</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>75,24; 83,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 32,85</t>
+          <t>23,35; 30,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 35,67</t>
+          <t>24,3; 35,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,51; 36,17</t>
+          <t>22,63; 35,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 36,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 31,42</t>
+          <t>28,89; 40,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,9</t>
+          <t>20,65; 26,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,84; 31,58</t>
+          <t>20,19; 28,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 31,9</t>
+          <t>18,07; 27,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 31,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 33,02</t>
+          <t>29,45; 40,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 33,03</t>
+          <t>22,85; 27,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 33,21</t>
+          <t>23,24; 30,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 29,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>30,51; 38,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31,43%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31,82%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27,56; 32,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29,08; 36,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 36,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30,87; 36,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33,81; 40,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 31,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27,8; 33,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,58; 31,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27,98; 32,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,6; 38,46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 31,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 33,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>29,74; 33,3</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>30,17; 33,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>34,07; 38,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2340</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5302</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11034</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14216</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11205</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13744</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27167</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24700</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31593</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36975</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16084</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32469</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>35734</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>45810</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>48179</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15267</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17213</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3908; 24264</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6426; 29399</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2708; 33037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5574; 27304</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13941; 46855</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12517; 40556</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17607; 47916</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20177; 74808</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6706; 30013</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17624; 55847</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19914; 54328</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28119; 67817</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25761; 85884</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>90747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>127676</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>118037</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>148862</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>190176</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>139182</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>162395</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136815</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>153091</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>198419</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>229929</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>290070</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>254852</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>301954</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>388595</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65006; 120392</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>94080; 166030</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>86799; 155145</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>112640; 198049</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>146942; 242165</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>107648; 179166</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>128612; 209213</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>104972; 170285</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>117484; 189012</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>160856; 250421</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>185980; 276891</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>240079; 343024</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>213937; 318726</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>253363; 367178</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>328154; 459937</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>518.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>382592</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>358701</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>760063</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>964027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>673883</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>402861</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>420469</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>697891</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>862400</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>672139</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>785454</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>779170</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1457953</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1826426</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1346022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>352596; 405873</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>319091; 389072</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>720790; 784692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>925067; 999110</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>616629; 715160</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>374117; 434445</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>379050; 457489</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>660055; 735438</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>816073; 903790</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>635150; 711608</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>744776; 819219</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>730795; 826237</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1405866; 1505976</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1765787; 1878482</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1268778; 1404947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>548836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>301956</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>230275</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>360429</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>479195</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>265125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>168596</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>329509</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1028031</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>567081</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>398871</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>689938</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>482989; 621349</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>246729; 362703</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>185433; 287167</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>298938; 417307</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>423713; 538006</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224096; 318849</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>132577; 199337</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>279865; 380221</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>941664; 1121151</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>493854; 642633</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>338095; 461381</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>605616; 770679</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>896.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>958.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1014.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>905.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1024515</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>793635</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1119409</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1127105</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1235693</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1034982</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>875155</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1028002</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1047084</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1237042</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2059497</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1668790</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2147411</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2174189</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2472735</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>934405; 1115295</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>709378; 879715</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1027409; 1223660</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1036057; 1223973</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1122871; 1346925</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>959420; 1120531</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>800101; 961887</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>960051; 1112669</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>972766; 1127490</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1134363; 1338552</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1935478; 2183537</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1551155; 1792512</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2032233; 2275293</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2061351; 2310393</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2316817; 2616984</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
